--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,14 +525,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H2">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I2">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J2">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>0.6607662535800001</v>
+        <v>1.806276676459667</v>
       </c>
       <c r="R2">
-        <v>5.94689628222</v>
+        <v>16.256490088137</v>
       </c>
       <c r="S2">
-        <v>0.00831030156600695</v>
+        <v>0.02071575207547815</v>
       </c>
       <c r="T2">
-        <v>0.00831030156600695</v>
+        <v>0.02071575207547814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H3">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I3">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J3">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>26.237031816402</v>
+        <v>66.33612649451702</v>
       </c>
       <c r="R3">
-        <v>236.133286347618</v>
+        <v>597.025138450653</v>
       </c>
       <c r="S3">
-        <v>0.3299769705397365</v>
+        <v>0.7607930545842138</v>
       </c>
       <c r="T3">
-        <v>0.3299769705397365</v>
+        <v>0.7607930545842138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H4">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I4">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J4">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.07677646069800001</v>
+        <v>0.4604699422590001</v>
       </c>
       <c r="R4">
-        <v>0.690988146282</v>
+        <v>4.144229480331001</v>
       </c>
       <c r="S4">
-        <v>0.0009655994659445976</v>
+        <v>0.005281018841888469</v>
       </c>
       <c r="T4">
-        <v>0.0009655994659445974</v>
+        <v>0.00528101884188847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H5">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I5">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J5">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>5.618693559956001</v>
+        <v>16.951666835424</v>
       </c>
       <c r="R5">
-        <v>50.568242039604</v>
+        <v>152.565001518816</v>
       </c>
       <c r="S5">
-        <v>0.07066498574531442</v>
+        <v>0.194414583327866</v>
       </c>
       <c r="T5">
-        <v>0.07066498574531441</v>
+        <v>0.194414583327866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H6">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I6">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J6">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.039377269006</v>
+        <v>0.2289442400683334</v>
       </c>
       <c r="R6">
-        <v>0.354395421054</v>
+        <v>2.060498160615</v>
       </c>
       <c r="S6">
-        <v>0.0004952386392505435</v>
+        <v>0.002625706337337101</v>
       </c>
       <c r="T6">
-        <v>0.0004952386392505434</v>
+        <v>0.002625706337337101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H7">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I7">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J7">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>0.01705202558</v>
+        <v>0.02968732648555556</v>
       </c>
       <c r="R7">
-        <v>0.15346823022</v>
+        <v>0.26718593837</v>
       </c>
       <c r="S7">
-        <v>0.0002144593101014167</v>
+        <v>0.000340476795871575</v>
       </c>
       <c r="T7">
-        <v>0.0002144593101014167</v>
+        <v>0.000340476795871575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H8">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I8">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J8">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
-        <v>0.677084423202</v>
+        <v>1.09027718217</v>
       </c>
       <c r="R8">
-        <v>6.093759808818</v>
+        <v>9.81249463953</v>
       </c>
       <c r="S8">
-        <v>0.00851553134254192</v>
+        <v>0.01250412635768149</v>
       </c>
       <c r="T8">
-        <v>0.008515531342541922</v>
+        <v>0.01250412635768149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H9">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I9">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J9">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>0.001981327231333333</v>
+        <v>0.007568121590000002</v>
       </c>
       <c r="R9">
-        <v>0.017831945082</v>
+        <v>0.06811309431000001</v>
       </c>
       <c r="S9">
-        <v>2.491868600146075E-05</v>
+        <v>8.67969633770634E-05</v>
       </c>
       <c r="T9">
-        <v>2.491868600146075E-05</v>
+        <v>8.679696337706341E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H10">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I10">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J10">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>0.1449984859115556</v>
+        <v>0.27861161824</v>
       </c>
       <c r="R10">
-        <v>1.304986373204</v>
+        <v>2.50750456416</v>
       </c>
       <c r="S10">
-        <v>0.00182361181130378</v>
+        <v>0.003195329532859903</v>
       </c>
       <c r="T10">
-        <v>0.00182361181130378</v>
+        <v>0.003195329532859903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,356 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H11">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I11">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J11">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>0.001016187183777778</v>
+        <v>0.003762846794444445</v>
       </c>
       <c r="R11">
-        <v>0.009145684653999999</v>
+        <v>0.03386562115</v>
       </c>
       <c r="S11">
-        <v>1.278034690626378E-05</v>
+        <v>4.315518342655153E-05</v>
       </c>
       <c r="T11">
-        <v>1.278034690626378E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H12">
-        <v>1.776571</v>
-      </c>
-      <c r="I12">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J12">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.57413</v>
-      </c>
-      <c r="N12">
-        <v>4.72239</v>
-      </c>
-      <c r="O12">
-        <v>0.02024862668342525</v>
-      </c>
-      <c r="P12">
-        <v>0.02024862668342525</v>
-      </c>
-      <c r="Q12">
-        <v>0.9321845694099999</v>
-      </c>
-      <c r="R12">
-        <v>8.389661124689999</v>
-      </c>
-      <c r="S12">
-        <v>0.01172386580731688</v>
-      </c>
-      <c r="T12">
-        <v>0.01172386580731688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.776571</v>
-      </c>
-      <c r="I13">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J13">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>62.503947</v>
-      </c>
-      <c r="N13">
-        <v>187.511841</v>
-      </c>
-      <c r="O13">
-        <v>0.804011796385049</v>
-      </c>
-      <c r="P13">
-        <v>0.8040117963850492</v>
-      </c>
-      <c r="Q13">
-        <v>37.014233208579</v>
-      </c>
-      <c r="R13">
-        <v>333.128098877211</v>
-      </c>
-      <c r="S13">
-        <v>0.4655192945027707</v>
-      </c>
-      <c r="T13">
-        <v>0.4655192945027707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H14">
-        <v>1.776571</v>
-      </c>
-      <c r="I14">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J14">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.182903</v>
-      </c>
-      <c r="N14">
-        <v>0.548709</v>
-      </c>
-      <c r="O14">
-        <v>0.002352750132631058</v>
-      </c>
-      <c r="P14">
-        <v>0.002352750132631058</v>
-      </c>
-      <c r="Q14">
-        <v>0.1083133885376667</v>
-      </c>
-      <c r="R14">
-        <v>0.974820496839</v>
-      </c>
-      <c r="S14">
-        <v>0.001362231980685</v>
-      </c>
-      <c r="T14">
-        <v>0.001362231980685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H15">
-        <v>1.776571</v>
-      </c>
-      <c r="I15">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J15">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>13.38529933333333</v>
-      </c>
-      <c r="N15">
-        <v>40.155898</v>
-      </c>
-      <c r="O15">
-        <v>0.1721801434738983</v>
-      </c>
-      <c r="P15">
-        <v>0.1721801434738983</v>
-      </c>
-      <c r="Q15">
-        <v>7.92664487397311</v>
-      </c>
-      <c r="R15">
-        <v>71.339803865758</v>
-      </c>
-      <c r="S15">
-        <v>0.09969154591728008</v>
-      </c>
-      <c r="T15">
-        <v>0.09969154591728008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H16">
-        <v>1.776571</v>
-      </c>
-      <c r="I16">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J16">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.09380766666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.281423</v>
-      </c>
-      <c r="O16">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="P16">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="Q16">
-        <v>0.05555199339255554</v>
-      </c>
-      <c r="R16">
-        <v>0.4999679405329999</v>
-      </c>
-      <c r="S16">
-        <v>0.0006986643388395575</v>
-      </c>
-      <c r="T16">
-        <v>0.0006986643388395575</v>
+        <v>4.315518342655153E-05</v>
       </c>
     </row>
   </sheetData>
